--- a/bin/Release/Новая папка/Новая папка/1/5-РД/Реестр РД.xlsx
+++ b/bin/Release/Новая папка/Новая папка/1/5-РД/Реестр РД.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="58">
   <si>
     <t>Состав рабочей документации</t>
   </si>
@@ -87,53 +87,28 @@
     <t>6 ЭТАП</t>
   </si>
   <si>
-    <t>0003-Р-01-02</t>
-  </si>
-  <si>
-    <t>0003-Р-01-00</t>
-  </si>
-  <si>
-    <t>0003-Р-01-00-01</t>
-  </si>
-  <si>
-    <t>0003-Р-01-00-02</t>
-  </si>
-  <si>
-    <t>0003-Р-02-01</t>
-  </si>
-  <si>
-    <t>0003-Р-02-02</t>
-  </si>
-  <si>
-    <t>0003-Р-04-01</t>
-  </si>
-  <si>
-    <t>0003-Р-04-02</t>
-  </si>
-  <si>
-    <t>0003-Р-05-01</t>
-  </si>
-  <si>
-    <t>0003-Р-05-00</t>
-  </si>
-  <si>
-    <t>0003-Р-06-00</t>
-  </si>
-  <si>
-    <t>0003-Р-06-01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Нефтесборный коллектор АГЗУ – 6 до т.в. в нефтесборный коллектор АГЗУ – 4 до  АГЗУ-1 Балейкинского м-я. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Узел запорной араматуры</t>
-    </r>
+    <t>7 ЭТАП</t>
+  </si>
+  <si>
+    <t>УДХ</t>
+  </si>
+  <si>
+    <t>8 ЭТАП</t>
+  </si>
+  <si>
+    <t>СТВ</t>
+  </si>
+  <si>
+    <t>Система технологического видеонаблюдения</t>
+  </si>
+  <si>
+    <t>Капитоновское месторождение. Сбор нефти и газа с куста добывающих скважин №1</t>
+  </si>
+  <si>
+    <t>Шифр 0001-Р</t>
+  </si>
+  <si>
+    <t>Обустройство площадки скважины №1 К-1, АГЗУ-7</t>
   </si>
   <si>
     <r>
@@ -145,8 +120,71 @@
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>Нефтесборный коллектор АГЗУ – 6 до т.в. в нефтесборный коллектор АГЗУ – 4 до  АГЗУ-1 Балейкинского м-я.</t>
+      <t xml:space="preserve">ВЛ-10 кВ от ВЛ скв. 5312 до КТП К-1 </t>
     </r>
+  </si>
+  <si>
+    <t>0001-Р-01-01</t>
+  </si>
+  <si>
+    <t>0001-Р-01-00</t>
+  </si>
+  <si>
+    <t>0001-Р-01-00-01</t>
+  </si>
+  <si>
+    <t>0001-Р-01-00-02</t>
+  </si>
+  <si>
+    <t>0001-Р-02-01</t>
+  </si>
+  <si>
+    <t>0001-Р-02-02</t>
+  </si>
+  <si>
+    <t>0001-Р-03-01</t>
+  </si>
+  <si>
+    <t>0001-Р-04-01</t>
+  </si>
+  <si>
+    <t>0001-Р-05-01</t>
+  </si>
+  <si>
+    <t>0001-Р-05-00</t>
+  </si>
+  <si>
+    <t>0001-Р-06-01</t>
+  </si>
+  <si>
+    <t>0001-Р-06-00</t>
+  </si>
+  <si>
+    <t>0001-Р-07-01</t>
+  </si>
+  <si>
+    <t>0001-Р-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки запуска СОД на нефтесборный коллектор от АГЗУ-7 К-1 до существующей АГЗУ-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки приема СОД на нефтесборный коллектор от АГЗУ-7 К-1 до существующей АГЗУ-4 </t>
+  </si>
+  <si>
+    <t>Обустройство площадки скважины №2 К-1</t>
+  </si>
+  <si>
+    <t>Обустройство площадки скважины №3 К-1</t>
+  </si>
+  <si>
+    <t>Обустройство площадки скважины №4 К-1</t>
+  </si>
+  <si>
+    <t>Обустройство площадки скважины №5 К-1</t>
+  </si>
+  <si>
+    <t>0001-Р-09-01</t>
   </si>
   <si>
     <r>
@@ -158,90 +196,27 @@
         <rFont val="Arial Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>ВЛ-10кВ от существующей ВЛ-10кВ скважины 1 СЛ до куста скважин №3</t>
+      <t xml:space="preserve">Нефтесборный коллектор от АГЗУ-7 К-1 до существующей АГЗУ-4 </t>
     </r>
   </si>
   <si>
-    <t>Обустройство площадки запуска СОД на нефтесборный коллектор АГЗУ – 6 до т.в. в нефтесборный коллектор АГЗУ – 4 до  АГЗУ-1 Балейкинского м-я.</t>
-  </si>
-  <si>
-    <t>Обустройство площадки приема СОД на нефтесборный коллектор АГЗУ – 6 до т.в. в нефтесборный коллектор АГЗУ – 4 до  АГЗУ-1 Балейкинского м-я.</t>
-  </si>
-  <si>
-    <t>Обустройство площадки скважины №2 К-3</t>
-  </si>
-  <si>
-    <t>Обустройство площадки скважины №3 К-3</t>
-  </si>
-  <si>
-    <t>Обустройство площадки скважины №4 К-3</t>
-  </si>
-  <si>
-    <t>Обустройство площадки скважины №5 К-3</t>
-  </si>
-  <si>
-    <t>7 ЭТАП</t>
-  </si>
-  <si>
-    <t>0003-Р-07-01</t>
-  </si>
-  <si>
-    <t>Новосамарское месторождение. Сбор нефти и газа с куста добывающих скважин №1 на период пробной эксплуатации. К-3», (количество скважин 5 шт., АГЗУ-6)</t>
-  </si>
-  <si>
-    <t>Шифр 0003-Р</t>
-  </si>
-  <si>
-    <t>УДХ</t>
-  </si>
-  <si>
-    <t>0003-Р-03-01</t>
-  </si>
-  <si>
-    <t>0003-Р-03-02</t>
-  </si>
-  <si>
-    <t>0003-Р-01-01</t>
-  </si>
-  <si>
-    <t>Обустройство площадки скважины №1 К-3, АГЗУ-6</t>
-  </si>
-  <si>
-    <t>8 ЭТАП</t>
-  </si>
-  <si>
-    <t>0003-Р-08-01</t>
-  </si>
-  <si>
-    <t>СТВ</t>
-  </si>
-  <si>
-    <t>Система технологического видеонаблюдения</t>
+    <t>0001-Р-04-00</t>
+  </si>
+  <si>
+    <t>0001-Р-03-00</t>
   </si>
   <si>
     <t>9 ЭТАП</t>
   </si>
   <si>
-    <t>ПАРН</t>
-  </si>
-  <si>
-    <t>0003-Р-09-01</t>
-  </si>
-  <si>
-    <t>10 ЭТАП</t>
-  </si>
-  <si>
-    <t>0003-Р-10-01</t>
-  </si>
-  <si>
-    <t>Блок автоматики</t>
+    <t>Блок автоматики К-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +269,15 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -303,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +373,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -449,62 +439,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -808,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,9 +826,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -884,11 +874,11 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="J4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -897,194 +887,202 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="A6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="39" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="42" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="40" t="s">
-        <v>17</v>
-      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="39" t="s">
-        <v>9</v>
-      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="39" t="s">
+      <c r="B14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="42" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="13"/>
@@ -1093,383 +1091,373 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="36" t="s">
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="40" t="s">
+      <c r="E19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="38" t="s">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E25" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F25" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G25" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="40" t="s">
-        <v>13</v>
-      </c>
+      <c r="H26" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="38" t="s">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E31" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F31" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G31" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="38" t="s">
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E36" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F36" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G36" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E37" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="40" t="s">
-        <v>13</v>
-      </c>
+      <c r="H37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
@@ -1478,161 +1466,173 @@
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="31" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="B41" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C45" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="40" t="s">
+      <c r="B46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G46" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="10" t="s">
+      <c r="A47" s="23"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
@@ -1641,35 +1641,37 @@
       <c r="B51" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="40" t="s">
+      <c r="E52" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G52" s="42" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="13"/>
@@ -1678,180 +1680,112 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:L46"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C50:E50"/>
+  <mergeCells count="17">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:L45"/>
     <mergeCell ref="C51:L51"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:L40"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
-    <hyperlink ref="E8" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="F8" r:id="rId11"/>
-    <hyperlink ref="F10" r:id="rId12"/>
-    <hyperlink ref="G6" r:id="rId13"/>
-    <hyperlink ref="G10" r:id="rId14"/>
-    <hyperlink ref="G8" r:id="rId15"/>
-    <hyperlink ref="H8" r:id="rId16"/>
-    <hyperlink ref="I6" r:id="rId17"/>
-    <hyperlink ref="J8" r:id="rId18"/>
-    <hyperlink ref="L8" r:id="rId19"/>
+    <hyperlink ref="C8" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="F7" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="G6" r:id="rId11"/>
+    <hyperlink ref="G7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="G9" r:id="rId14"/>
+    <hyperlink ref="H7" r:id="rId15"/>
+    <hyperlink ref="I6" r:id="rId16"/>
+    <hyperlink ref="J7" r:id="rId17"/>
+    <hyperlink ref="L7" r:id="rId18"/>
+    <hyperlink ref="C13" r:id="rId19"/>
     <hyperlink ref="C14" r:id="rId20"/>
-    <hyperlink ref="C15" r:id="rId21"/>
+    <hyperlink ref="D13" r:id="rId21"/>
     <hyperlink ref="D14" r:id="rId22"/>
-    <hyperlink ref="D15" r:id="rId23"/>
-    <hyperlink ref="F14" r:id="rId24"/>
-    <hyperlink ref="F15" r:id="rId25"/>
-    <hyperlink ref="G14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="C20" r:id="rId28"/>
-    <hyperlink ref="D20" r:id="rId29"/>
-    <hyperlink ref="D21" r:id="rId30"/>
-    <hyperlink ref="E20" r:id="rId31"/>
-    <hyperlink ref="E21" r:id="rId32"/>
-    <hyperlink ref="F20" r:id="rId33"/>
-    <hyperlink ref="F21" r:id="rId34"/>
-    <hyperlink ref="G20" r:id="rId35"/>
-    <hyperlink ref="G21" r:id="rId36"/>
-    <hyperlink ref="H21" r:id="rId37"/>
-    <hyperlink ref="C26" r:id="rId38"/>
-    <hyperlink ref="D26" r:id="rId39"/>
-    <hyperlink ref="D27" r:id="rId40"/>
-    <hyperlink ref="E26" r:id="rId41"/>
-    <hyperlink ref="E27" r:id="rId42"/>
-    <hyperlink ref="F26" r:id="rId43"/>
-    <hyperlink ref="F27" r:id="rId44"/>
-    <hyperlink ref="G26" r:id="rId45"/>
-    <hyperlink ref="G27" r:id="rId46"/>
-    <hyperlink ref="H27" r:id="rId47"/>
-    <hyperlink ref="I26" r:id="rId48"/>
-    <hyperlink ref="C32" r:id="rId49"/>
-    <hyperlink ref="D32" r:id="rId50"/>
-    <hyperlink ref="D33" r:id="rId51"/>
-    <hyperlink ref="E32" r:id="rId52"/>
-    <hyperlink ref="E33" r:id="rId53"/>
-    <hyperlink ref="F32" r:id="rId54"/>
-    <hyperlink ref="F33" r:id="rId55"/>
-    <hyperlink ref="G32" r:id="rId56"/>
-    <hyperlink ref="G33" r:id="rId57"/>
-    <hyperlink ref="H33" r:id="rId58"/>
-    <hyperlink ref="C37" r:id="rId59"/>
-    <hyperlink ref="D37" r:id="rId60"/>
-    <hyperlink ref="D38" r:id="rId61"/>
-    <hyperlink ref="E37" r:id="rId62"/>
-    <hyperlink ref="E38" r:id="rId63"/>
-    <hyperlink ref="F37" r:id="rId64"/>
-    <hyperlink ref="F38" r:id="rId65"/>
-    <hyperlink ref="G37" r:id="rId66"/>
-    <hyperlink ref="G38" r:id="rId67"/>
-    <hyperlink ref="H38" r:id="rId68"/>
-    <hyperlink ref="I37" r:id="rId69"/>
-    <hyperlink ref="C42" r:id="rId70"/>
-    <hyperlink ref="D42" r:id="rId71"/>
-    <hyperlink ref="E42" r:id="rId72"/>
-    <hyperlink ref="F42" r:id="rId73"/>
-    <hyperlink ref="G42" r:id="rId74"/>
-    <hyperlink ref="J42" r:id="rId75"/>
-    <hyperlink ref="F47" r:id="rId76"/>
-    <hyperlink ref="G47" r:id="rId77"/>
-    <hyperlink ref="K47" r:id="rId78"/>
+    <hyperlink ref="E13" r:id="rId23"/>
+    <hyperlink ref="F13" r:id="rId24"/>
+    <hyperlink ref="F14" r:id="rId25"/>
+    <hyperlink ref="G13" r:id="rId26"/>
+    <hyperlink ref="G14" r:id="rId27"/>
+    <hyperlink ref="C19" r:id="rId28"/>
+    <hyperlink ref="D19" r:id="rId29"/>
+    <hyperlink ref="D20" r:id="rId30"/>
+    <hyperlink ref="E19" r:id="rId31"/>
+    <hyperlink ref="E20" r:id="rId32"/>
+    <hyperlink ref="F19" r:id="rId33"/>
+    <hyperlink ref="F20" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="G20" r:id="rId36"/>
+    <hyperlink ref="H20" r:id="rId37"/>
+    <hyperlink ref="C25" r:id="rId38"/>
+    <hyperlink ref="D25" r:id="rId39"/>
+    <hyperlink ref="D26" r:id="rId40"/>
+    <hyperlink ref="E25" r:id="rId41"/>
+    <hyperlink ref="E26" r:id="rId42"/>
+    <hyperlink ref="F25" r:id="rId43"/>
+    <hyperlink ref="F26" r:id="rId44"/>
+    <hyperlink ref="G25" r:id="rId45"/>
+    <hyperlink ref="G26" r:id="rId46"/>
+    <hyperlink ref="H26" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="C31" r:id="rId49"/>
+    <hyperlink ref="D31" r:id="rId50"/>
+    <hyperlink ref="D32" r:id="rId51"/>
+    <hyperlink ref="E31" r:id="rId52"/>
+    <hyperlink ref="E32" r:id="rId53"/>
+    <hyperlink ref="F31" r:id="rId54"/>
+    <hyperlink ref="F32" r:id="rId55"/>
+    <hyperlink ref="G31" r:id="rId56"/>
+    <hyperlink ref="G32" r:id="rId57"/>
+    <hyperlink ref="H32" r:id="rId58"/>
+    <hyperlink ref="C36" r:id="rId59"/>
+    <hyperlink ref="D36" r:id="rId60"/>
+    <hyperlink ref="D37" r:id="rId61"/>
+    <hyperlink ref="E36" r:id="rId62"/>
+    <hyperlink ref="E37" r:id="rId63"/>
+    <hyperlink ref="F36" r:id="rId64"/>
+    <hyperlink ref="F37" r:id="rId65"/>
+    <hyperlink ref="G36" r:id="rId66"/>
+    <hyperlink ref="G37" r:id="rId67"/>
+    <hyperlink ref="H37" r:id="rId68"/>
+    <hyperlink ref="I36" r:id="rId69"/>
+    <hyperlink ref="C41" r:id="rId70"/>
+    <hyperlink ref="D41" r:id="rId71"/>
+    <hyperlink ref="E41" r:id="rId72"/>
+    <hyperlink ref="F41" r:id="rId73"/>
+    <hyperlink ref="G41" r:id="rId74"/>
+    <hyperlink ref="J41" r:id="rId75"/>
+    <hyperlink ref="F46" r:id="rId76"/>
+    <hyperlink ref="G46" r:id="rId77"/>
+    <hyperlink ref="K46" r:id="rId78"/>
     <hyperlink ref="C52" r:id="rId79"/>
-    <hyperlink ref="F52" r:id="rId80"/>
-    <hyperlink ref="G52" r:id="rId81"/>
-    <hyperlink ref="C56" r:id="rId82"/>
-    <hyperlink ref="F56" r:id="rId83"/>
-    <hyperlink ref="G56" r:id="rId84"/>
-    <hyperlink ref="J56" r:id="rId85"/>
+    <hyperlink ref="E52" r:id="rId80"/>
+    <hyperlink ref="F52" r:id="rId81"/>
+    <hyperlink ref="G52" r:id="rId82"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId86"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
 
